--- a/VOCABULARY COLLECTIONS.xlsx
+++ b/VOCABULARY COLLECTIONS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajtirtha.dutta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajtirtha.dutta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="71" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2134,7 +2134,7 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
     </row>
